--- a/QuantLibXL/StandaloneExamples/Analytics/InterestRateDerivatives.xlsx
+++ b/QuantLibXL/StandaloneExamples/Analytics/InterestRateDerivatives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojan\OneDrive - BN Algorithms Ltd\QuantLib\QLXL-v1.14-IRfix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\QuantLibAddin\QuantLibXL\StandaloneExamples\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_8E4ABFE60946FEC56EF76F1D976C3E7074F2A477" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0E5D53C3-C495-4E22-8A30-F2DA194430B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C095E0-265F-4B3D-B656-BB63C49AF484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19056" windowHeight="12408" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TermStructures" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2473,10 +2476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2659,7 +2662,7 @@
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2678,7 +2681,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2690,9 +2693,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2721,24 +2724,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2747,16 +2750,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3109,18 +3112,18 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3130,24 +3133,24 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlFlatForward(B3,B4,B5,B6,B7,B8,B9,B10,B11)</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlConstantSwaptionVolatility(E3,0,"TARGET","f",E5,E6,E7,E8)</f>
-        <v>obj_00001#0000</v>
+        <v>obj_0008f#0001</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H1" s="11" t="str">
         <f>_xll.qlConstantOptionletVolatility(H3,0,H5,"f",H4,H6,H7,H8)</f>
-        <v>obj_00003#0000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00090#0001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="E4" s="15">
         <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>43489</v>
+        <v>44828</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -3253,7 +3256,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3283,7 +3286,7 @@
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3294,7 +3297,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
     </dataValidation>
@@ -3322,29 +3325,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(Swaps!E1,1)</f>
         <v>Payment Date</v>
@@ -3410,9 +3413,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>44040</v>
+        <v>45378</v>
       </c>
       <c r="B2" s="35">
         <v>22182.171633423619</v>
@@ -3421,10 +3424,10 @@
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>43858</v>
+        <v>45196</v>
       </c>
       <c r="E2" s="41">
-        <v>44040</v>
+        <v>45378</v>
       </c>
       <c r="F2" s="36">
         <v>182</v>
@@ -3436,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="41">
-        <v>43854</v>
+        <v>45194</v>
       </c>
       <c r="J2" s="36" t="str">
         <v>Actual/360</v>
@@ -3494,9 +3497,9 @@
       <c r="AM2" s="30"/>
       <c r="AN2" s="30"/>
     </row>
-    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="B3" s="35">
         <v>22428.645264951807</v>
@@ -3505,10 +3508,10 @@
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>44040</v>
+        <v>45378</v>
       </c>
       <c r="E3" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="F3" s="36">
         <v>184</v>
@@ -3520,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="41">
-        <v>44036</v>
+        <v>45376</v>
       </c>
       <c r="J3" s="36" t="str">
         <v>Actual/360</v>
@@ -3578,9 +3581,9 @@
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
     </row>
-    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>44405</v>
+        <v>45743</v>
       </c>
       <c r="B4" s="35">
         <v>22058.957099786225</v>
@@ -3589,10 +3592,10 @@
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="E4" s="41">
-        <v>44405</v>
+        <v>45743</v>
       </c>
       <c r="F4" s="36">
         <v>181</v>
@@ -3604,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="41">
-        <v>44222</v>
+        <v>45560</v>
       </c>
       <c r="J4" s="36" t="str">
         <v>Actual/360</v>
@@ -3662,24 +3665,24 @@
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
     </row>
-    <row r="5" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="B5" s="35">
-        <v>22428.645264951585</v>
+        <v>22675.178327423495</v>
       </c>
       <c r="C5" s="35">
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>44405</v>
+        <v>45743</v>
       </c>
       <c r="E5" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="F5" s="36">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G5" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3688,16 +3691,16 @@
         <v>2</v>
       </c>
       <c r="I5" s="41">
-        <v>44403</v>
+        <v>45741</v>
       </c>
       <c r="J5" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K5" s="38">
-        <v>0.51111111111111107</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="L5" s="39">
-        <v>4.3882132040122673E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="M5" s="39" t="str">
         <v>#N/A</v>
@@ -3706,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="39">
-        <v>4.3882132040122673E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="P5" s="39">
         <v>0</v>
@@ -3746,24 +3749,24 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
     </row>
-    <row r="6" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>44770</v>
+        <v>46108</v>
       </c>
       <c r="B6" s="35">
-        <v>22058.957099786225</v>
+        <v>21812.572587811774</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="E6" s="41">
-        <v>44770</v>
+        <v>46108</v>
       </c>
       <c r="F6" s="36">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3772,16 +3775,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="41">
-        <v>44587</v>
+        <v>45925</v>
       </c>
       <c r="J6" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K6" s="38">
-        <v>0.50277777777777777</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="L6" s="39">
-        <v>4.3874168817254373E-2</v>
+        <v>4.3868861070459432E-2</v>
       </c>
       <c r="M6" s="39" t="str">
         <v>#N/A</v>
@@ -3790,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="39">
-        <v>4.3874168817254373E-2</v>
+        <v>4.3868861070459432E-2</v>
       </c>
       <c r="P6" s="39">
         <v>0</v>
@@ -3830,24 +3833,24 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
     </row>
-    <row r="7" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="B7" s="35">
-        <v>22675.178327423495</v>
+        <v>22551.904366423958</v>
       </c>
       <c r="C7" s="35">
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>44770</v>
+        <v>46108</v>
       </c>
       <c r="E7" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="F7" s="36">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3856,16 +3859,16 @@
         <v>2</v>
       </c>
       <c r="I7" s="41">
-        <v>44768</v>
+        <v>46106</v>
       </c>
       <c r="J7" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K7" s="38">
-        <v>0.51666666666666672</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="L7" s="39">
-        <v>4.3887441924045471E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="M7" s="39" t="str">
         <v>#N/A</v>
@@ -3874,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="39">
-        <v>4.3887441924045471E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="P7" s="39">
         <v>0</v>
@@ -3914,24 +3917,24 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>45135</v>
+        <v>46476</v>
       </c>
       <c r="B8" s="35">
-        <v>21812.572587811774</v>
+        <v>22305.401021215366</v>
       </c>
       <c r="C8" s="35">
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="E8" s="41">
-        <v>45135</v>
+        <v>46476</v>
       </c>
       <c r="F8" s="36">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G8" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3940,16 +3943,16 @@
         <v>2</v>
       </c>
       <c r="I8" s="41">
-        <v>44952</v>
+        <v>46289</v>
       </c>
       <c r="J8" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K8" s="38">
-        <v>0.49722222222222223</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="L8" s="39">
-        <v>4.3868861070459432E-2</v>
+        <v>4.3879477418784327E-2</v>
       </c>
       <c r="M8" s="39" t="str">
         <v>#N/A</v>
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="39">
-        <v>4.3868861070459432E-2</v>
+        <v>4.3879477418784327E-2</v>
       </c>
       <c r="P8" s="39">
         <v>0</v>
@@ -3998,24 +4001,24 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="B9" s="35">
-        <v>22551.904366423958</v>
+        <v>22058.957099786003</v>
       </c>
       <c r="C9" s="35">
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>45135</v>
+        <v>46476</v>
       </c>
       <c r="E9" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="F9" s="36">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G9" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4024,16 +4027,16 @@
         <v>2</v>
       </c>
       <c r="I9" s="41">
-        <v>45133</v>
+        <v>46470</v>
       </c>
       <c r="J9" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K9" s="38">
-        <v>0.51388888888888884</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L9" s="39">
-        <v>4.3884786875203384E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="M9" s="39" t="str">
         <v>#N/A</v>
@@ -4042,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="39">
-        <v>4.3884786875203384E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="P9" s="39">
         <v>0</v>
@@ -4082,21 +4085,21 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>45502</v>
+        <v>46839</v>
       </c>
       <c r="B10" s="35">
-        <v>22182.171633423841</v>
+        <v>22182.171633423619</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="E10" s="41">
-        <v>45502</v>
+        <v>46839</v>
       </c>
       <c r="F10" s="36">
         <v>182</v>
@@ -4108,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="41">
-        <v>45316</v>
+        <v>46653</v>
       </c>
       <c r="J10" s="36" t="str">
         <v>Actual/360</v>
@@ -4117,7 +4120,7 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="L10" s="39">
-        <v>4.3876823011168041E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="M10" s="39" t="str">
         <v>#N/A</v>
@@ -4126,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="39">
-        <v>4.3876823011168041E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="P10" s="39">
         <v>0</v>
@@ -4166,24 +4169,24 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="B11" s="35">
-        <v>22305.401021215144</v>
+        <v>22428.645264951807</v>
       </c>
       <c r="C11" s="35">
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>45502</v>
+        <v>46839</v>
       </c>
       <c r="E11" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="F11" s="36">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4192,16 +4195,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="41">
-        <v>45498</v>
+        <v>46835</v>
       </c>
       <c r="J11" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K11" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L11" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="M11" s="39" t="str">
         <v>#N/A</v>
@@ -4210,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="P11" s="39">
         <v>0</v>
@@ -4250,9 +4253,9 @@
       <c r="AM11" s="30"/>
       <c r="AN11" s="30"/>
     </row>
-    <row r="12" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
-        <v>45866</v>
+        <v>47204</v>
       </c>
       <c r="B12" s="35">
         <v>22058.957099786225</v>
@@ -4261,10 +4264,10 @@
         <v>1000000</v>
       </c>
       <c r="D12" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="E12" s="41">
-        <v>45866</v>
+        <v>47204</v>
       </c>
       <c r="F12" s="36">
         <v>181</v>
@@ -4276,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="41">
-        <v>45681</v>
+        <v>47021</v>
       </c>
       <c r="J12" s="36" t="str">
         <v>Actual/360</v>
@@ -4334,21 +4337,21 @@
       <c r="AM12" s="30"/>
       <c r="AN12" s="30"/>
     </row>
-    <row r="13" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="B13" s="35">
-        <v>22428.645264951807</v>
+        <v>22428.645264951585</v>
       </c>
       <c r="C13" s="35">
         <v>1000000</v>
       </c>
       <c r="D13" s="41">
-        <v>45866</v>
+        <v>47204</v>
       </c>
       <c r="E13" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="F13" s="36">
         <v>184</v>
@@ -4360,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="41">
-        <v>45862</v>
+        <v>47200</v>
       </c>
       <c r="J13" s="36" t="str">
         <v>Actual/360</v>
@@ -4369,7 +4372,7 @@
         <v>0.51111111111111107</v>
       </c>
       <c r="L13" s="39">
-        <v>4.3882132040123104E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="M13" s="39" t="str">
         <v>#N/A</v>
@@ -4378,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="39">
-        <v>4.3882132040123104E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="P13" s="39">
         <v>0</v>
@@ -4418,9 +4421,9 @@
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
     </row>
-    <row r="14" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
-        <v>46231</v>
+        <v>47569</v>
       </c>
       <c r="B14" s="35">
         <v>22058.957099786225</v>
@@ -4429,10 +4432,10 @@
         <v>1000000</v>
       </c>
       <c r="D14" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="E14" s="41">
-        <v>46231</v>
+        <v>47569</v>
       </c>
       <c r="F14" s="36">
         <v>181</v>
@@ -4444,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="41">
-        <v>46048</v>
+        <v>47386</v>
       </c>
       <c r="J14" s="36" t="str">
         <v>Actual/360</v>
@@ -4502,9 +4505,9 @@
       <c r="AM14" s="30"/>
       <c r="AN14" s="30"/>
     </row>
-    <row r="15" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="B15" s="35">
         <v>22428.645264951585</v>
@@ -4513,10 +4516,10 @@
         <v>1000000</v>
       </c>
       <c r="D15" s="41">
-        <v>46231</v>
+        <v>47569</v>
       </c>
       <c r="E15" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="F15" s="36">
         <v>184</v>
@@ -4528,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="41">
-        <v>46227</v>
+        <v>47567</v>
       </c>
       <c r="J15" s="36" t="str">
         <v>Actual/360</v>
@@ -4586,21 +4589,21 @@
       <c r="AM15" s="30"/>
       <c r="AN15" s="30"/>
     </row>
-    <row r="16" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
-        <v>46596</v>
+        <v>47934</v>
       </c>
       <c r="B16" s="35">
-        <v>22058.957099786003</v>
+        <v>22058.957099786225</v>
       </c>
       <c r="C16" s="35">
         <v>1000000</v>
       </c>
       <c r="D16" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="E16" s="41">
-        <v>46596</v>
+        <v>47934</v>
       </c>
       <c r="F16" s="36">
         <v>181</v>
@@ -4612,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="41">
-        <v>46413</v>
+        <v>47751</v>
       </c>
       <c r="J16" s="36" t="str">
         <v>Actual/360</v>
@@ -4621,7 +4624,7 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="L16" s="39">
-        <v>4.3874168817253929E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="M16" s="39" t="str">
         <v>#N/A</v>
@@ -4630,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="39">
-        <v>4.3874168817253929E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="P16" s="39">
         <v>0</v>
@@ -4670,24 +4673,24 @@
       <c r="AM16" s="30"/>
       <c r="AN16" s="30"/>
     </row>
-    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="B17" s="35">
-        <v>22428.645264951807</v>
+        <v>22675.178327423495</v>
       </c>
       <c r="C17" s="35">
         <v>1000000</v>
       </c>
       <c r="D17" s="41">
-        <v>46596</v>
+        <v>47934</v>
       </c>
       <c r="E17" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="F17" s="36">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G17" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4696,16 +4699,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="41">
-        <v>46594</v>
+        <v>47932</v>
       </c>
       <c r="J17" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K17" s="38">
-        <v>0.51111111111111107</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="L17" s="39">
-        <v>4.3882132040123104E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="M17" s="39" t="str">
         <v>#N/A</v>
@@ -4714,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="39">
-        <v>4.3882132040123104E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="P17" s="39">
         <v>0</v>
@@ -4754,24 +4757,24 @@
       <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
     </row>
-    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
-        <v>46962</v>
+        <v>48303</v>
       </c>
       <c r="B18" s="35">
-        <v>22182.171633423619</v>
+        <v>22305.401021215144</v>
       </c>
       <c r="C18" s="35">
         <v>1000000</v>
       </c>
       <c r="D18" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="E18" s="41">
-        <v>46962</v>
+        <v>48303</v>
       </c>
       <c r="F18" s="36">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G18" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4780,16 +4783,16 @@
         <v>2</v>
       </c>
       <c r="I18" s="41">
-        <v>46778</v>
+        <v>48116</v>
       </c>
       <c r="J18" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K18" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="L18" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.387947741878389E-2</v>
       </c>
       <c r="M18" s="39" t="str">
         <v>#N/A</v>
@@ -4798,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.387947741878389E-2</v>
       </c>
       <c r="P18" s="39">
         <v>0</v>
@@ -4838,24 +4841,24 @@
       <c r="AM18" s="30"/>
       <c r="AN18" s="30"/>
     </row>
-    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="B19" s="35">
-        <v>22551.904366423958</v>
+        <v>22058.957099786003</v>
       </c>
       <c r="C19" s="35">
         <v>1000000</v>
       </c>
       <c r="D19" s="41">
-        <v>46962</v>
+        <v>48303</v>
       </c>
       <c r="E19" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="F19" s="36">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G19" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4864,16 +4867,16 @@
         <v>2</v>
       </c>
       <c r="I19" s="41">
-        <v>46960</v>
+        <v>48297</v>
       </c>
       <c r="J19" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K19" s="38">
-        <v>0.51388888888888884</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L19" s="39">
-        <v>4.3884786875203384E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="M19" s="39" t="str">
         <v>#N/A</v>
@@ -4882,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="39">
-        <v>4.3884786875203384E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="P19" s="39">
         <v>0</v>
@@ -4922,9 +4925,9 @@
       <c r="AM19" s="30"/>
       <c r="AN19" s="30"/>
     </row>
-    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
-        <v>47329</v>
+        <v>48666</v>
       </c>
       <c r="B20" s="35">
         <v>22182.171633423619</v>
@@ -4933,10 +4936,10 @@
         <v>1000000</v>
       </c>
       <c r="D20" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="E20" s="41">
-        <v>47329</v>
+        <v>48666</v>
       </c>
       <c r="F20" s="36">
         <v>182</v>
@@ -4948,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="41">
-        <v>47143</v>
+        <v>48480</v>
       </c>
       <c r="J20" s="36" t="str">
         <v>Actual/360</v>
@@ -5006,24 +5009,24 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="B21" s="35">
-        <v>22182.171633423619</v>
+        <v>22305.401021215144</v>
       </c>
       <c r="C21" s="35">
         <v>1000000</v>
       </c>
       <c r="D21" s="41">
-        <v>47329</v>
+        <v>48666</v>
       </c>
       <c r="E21" s="41">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="F21" s="36">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G21" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -5032,16 +5035,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="41">
-        <v>47325</v>
+        <v>48662</v>
       </c>
       <c r="J21" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K21" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="L21" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.387947741878389E-2</v>
       </c>
       <c r="M21" s="39" t="str">
         <v>#N/A</v>
@@ -5050,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.387947741878389E-2</v>
       </c>
       <c r="P21" s="39">
         <v>0</v>
@@ -5397,16 +5400,16 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,29 +5426,29 @@
       </c>
       <c r="B2" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,SwaptionExpiry,"f"),"2d")</f>
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="29">
         <f>_xll.qlCalendarAdvance(Calendar,B2,"10Y","Unadjusted")</f>
-        <v>47511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>48849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>_xll.qlSchedule(B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19)</f>
-        <v>obj_0000a#0000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00099#0003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -5458,7 +5461,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -5466,7 +5469,7 @@
       </c>
       <c r="B8" s="15">
         <f>EffectiveDate</f>
-        <v>43858</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5475,7 +5478,7 @@
       </c>
       <c r="B9" s="15">
         <f>TerminationDate</f>
-        <v>47511</v>
+        <v>48849</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,23 +5545,23 @@
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="11" t="str">
         <f>_xll.qlSchedule(B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000b#0000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00098#0001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -5579,7 +5582,7 @@
       </c>
       <c r="B24" s="15">
         <f>EffectiveDate</f>
-        <v>43858</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5588,7 +5591,7 @@
       </c>
       <c r="B25" s="15">
         <f>TerminationDate</f>
-        <v>47511</v>
+        <v>48849</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5658,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -5686,10 +5689,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5698,10 +5701,10 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlDiscountingSwapEngine(B3,B4,B5,B6)</f>
-        <v>obj_00004#0000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00094#0001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +5725,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5731,23 +5734,23 @@
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>_xll.qlBlackCapFloorEngine(B10,B11,B12,B13,B14)</f>
-        <v>obj_00006#0000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00093#0001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5768,7 +5771,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5777,7 +5780,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>TermStructures!$H$1</f>
-        <v>obj_00003#0000</v>
+        <v>obj_00090#0001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5786,23 +5789,23 @@
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="11" t="str">
         <f>_xll.qlBlackSwaptionEngine(B18,B19,B20,B21,B22)</f>
-        <v>obj_00005#0000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00095#0001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -5823,7 +5826,7 @@
       </c>
       <c r="B19" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5832,7 +5835,7 @@
       </c>
       <c r="B20" s="8" t="str">
         <f>TermStructures!$E$1</f>
-        <v>obj_00001#0000</v>
+        <v>obj_0008f#0001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5841,7 +5844,7 @@
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5860,21 +5863,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5883,14 +5886,14 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuribor(B3,B4,B5,B6,B7)</f>
-        <v>obj_00009#0000</v>
+        <v>obj_00092#0001</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlVanillaSwap(E3,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,E14)</f>
-        <v>obj_0000e#0000</v>
+        <v>obj_0009c#0003</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -5900,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5920,7 +5923,7 @@
       </c>
       <c r="I2" s="27">
         <f>_xll.qlInstrumentNPV(E1,I1)</f>
-        <v>-37678.051078459364</v>
+        <v>-37682.527025902644</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5937,7 +5940,7 @@
       </c>
       <c r="I3" s="28">
         <f>_xll.qlVanillaSwapFairRate($E$1,$I$1)</f>
-        <v>4.5021100886513739E-2</v>
+        <v>4.5021108778764946E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5959,7 +5962,7 @@
       </c>
       <c r="I4" s="28">
         <f>_xll.qlVanillaSwapFairSpread($E$1,$I$1)</f>
-        <v>4.8525477152209454E-3</v>
+        <v>4.8525412870463001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5968,7 +5971,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
@@ -5988,10 +5991,10 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>DateCalc!$B$5</f>
-        <v>obj_0000a#0000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00099#0003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
@@ -6019,17 +6022,17 @@
       </c>
       <c r="B9" s="11" t="str">
         <f>_xll.qlIborLeg(B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24)</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_0009a#0001</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>DateCalc!B21</f>
-        <v>obj_0000b#0000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00098#0001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -6042,7 +6045,7 @@
       </c>
       <c r="E10" s="8" t="str">
         <f>B1</f>
-        <v>obj_00009#0000</v>
+        <v>obj_00092#0001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6085,20 +6088,20 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>DateCalc!B21</f>
-        <v>obj_0000b#0000</v>
+        <v>obj_00098#0001</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -6114,7 +6117,7 @@
       </c>
       <c r="E16" s="11" t="str">
         <f>_xll.qlSwap(E18,E19:F19,E20:F20,E21,E22)</f>
-        <v>obj_00014#0000</v>
+        <v>obj_000a2#0003</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -6124,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -6143,10 +6146,10 @@
       </c>
       <c r="I17" s="27">
         <f>_xll.qlInstrumentNPV(E16,I16)</f>
-        <v>-37678.051078459364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-37682.527025902644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -6167,20 +6170,20 @@
       </c>
       <c r="E19" s="17" t="str">
         <f>B26</f>
-        <v>obj_0000d#0000</v>
+        <v>obj_0009b#0003</v>
       </c>
       <c r="F19" s="18" t="str">
         <f>B9</f>
-        <v>obj_0000c#0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0009a#0001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>B1</f>
-        <v>obj_00009#0000</v>
+        <v>obj_00092#0001</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>18</v>
@@ -6202,7 +6205,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -6218,23 +6221,23 @@
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="11" t="str">
         <f>_xll.qlFixedRateLeg(B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000d#0000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0009b#0003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -6272,7 +6275,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>DateCalc!$B$5</f>
-        <v>obj_0000a#0000</v>
+        <v>obj_00099#0003</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6297,7 +6300,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -6331,13 +6334,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -6346,7 +6349,7 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlCapFloor(B3,B4,B5,B6,B7,B8)</f>
-        <v>obj_00012#0000</v>
+        <v>obj_000a1#0001</v>
       </c>
       <c r="D1" t="s">
         <v>75</v>
@@ -6356,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6369,7 +6372,7 @@
       </c>
       <c r="E2" s="27">
         <f>_xll.qlInstrumentNPV(B1,E1)</f>
-        <v>29877.281147543676</v>
+        <v>29844.394516444518</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6382,7 +6385,7 @@
       </c>
       <c r="E3" s="2">
         <f>_xll.qlCapFloorAtmRate(B1,TermStructures!$B$1)</f>
-        <v>4.3878583450672061E-2</v>
+        <v>4.3878602570346377E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6406,7 +6409,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_0009a#0001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6423,20 +6426,20 @@
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="11" t="str">
         <f>_xll.qlCapFloor(B12,B13,B14,B15,B16,B17)</f>
-        <v>obj_00011#0000</v>
+        <v>obj_000a0#0001</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -6446,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6459,7 +6462,7 @@
       </c>
       <c r="E11" s="27">
         <f>_xll.qlInstrumentNPV(B10,E10)</f>
-        <v>59992.89750884207</v>
+        <v>59963.776822365347</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6472,7 +6475,7 @@
       </c>
       <c r="E12" s="2">
         <f>_xll.qlCapFloorAtmRate(B10,TermStructures!$B$1)</f>
-        <v>4.3878583450672061E-2</v>
+        <v>4.3878602570346377E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6496,7 +6499,7 @@
       </c>
       <c r="B14" s="8" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_0009a#0001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6513,7 +6516,7 @@
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -6537,16 +6540,16 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -6555,10 +6558,10 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuropeanExercise(B3,B4,B5,B6)</f>
-        <v>obj_00000#0000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0008e#0001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6587,20 +6590,20 @@
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>_xll.qlSwaption(B10,B11,B12,B13,B14,B15)</f>
-        <v>obj_00010#0000</v>
+        <v>obj_0009e#0003</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -6610,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6623,7 +6626,7 @@
       </c>
       <c r="E9" s="27">
         <f>_xll.qlInstrumentNPV(B8,E8)</f>
-        <v>7692.187316560342</v>
+        <v>7647.1234173599951</v>
       </c>
       <c r="F9" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -6649,7 +6652,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>Swaps!E1</f>
-        <v>obj_0000e#0000</v>
+        <v>obj_0009c#0003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -6658,7 +6661,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>B1</f>
-        <v>obj_00000#0000</v>
+        <v>obj_0008e#0001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6675,7 +6678,7 @@
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -6704,15 +6707,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -6721,14 +6724,14 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuriborSwapIsdaFixA(B3,B4,B5,B6,B7,B8)</f>
-        <v>obj_00008#0000</v>
+        <v>obj_00096#0001</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlSwap(E3,E4:F4,E5:F5,E6,E7)</f>
-        <v>obj_00013#0000</v>
+        <v>obj_0009f#0003</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -6738,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6758,10 +6761,10 @@
       </c>
       <c r="I2" s="27">
         <f>_xll.qlInstrumentNPV(E1,I1)</f>
-        <v>-12956.187453549297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-12972.379603781737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6784,20 +6787,20 @@
       </c>
       <c r="E4" s="17" t="str">
         <f>B20</f>
-        <v>obj_0000f#0000</v>
+        <v>obj_0009d#0003</v>
       </c>
       <c r="F4" s="18" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000c#0000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0009a#0001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>18</v>
@@ -6815,14 +6818,14 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00091#0001</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -6832,23 +6835,23 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="11" t="str">
         <f>_xll.qlCmsCouponPricer(B12,B13,B14,B15,B16,B17,B18)</f>
-        <v>obj_00007#0000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00097#0001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6869,7 +6872,7 @@
       </c>
       <c r="B13" s="8" t="str">
         <f>TermStructures!E1</f>
-        <v>obj_00001#0000</v>
+        <v>obj_0008f#0001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6902,23 +6905,23 @@
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="11" t="str">
         <f>_xll.qlCmsLeg(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000f#0000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0009d#0003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
@@ -6956,7 +6959,7 @@
       </c>
       <c r="B25" s="8" t="str">
         <f>DateCalc!B5</f>
-        <v>obj_0000a#0000</v>
+        <v>obj_00099#0003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6997,7 +7000,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>B1</f>
-        <v>obj_00008#0000</v>
+        <v>obj_00096#0001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -7018,7 +7021,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -7063,29 +7066,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(Swaps!E1,0)</f>
         <v>Payment Date</v>
@@ -7151,9 +7154,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="B2" s="35">
         <v>50000.000000000044</v>
@@ -7162,10 +7165,10 @@
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>43858</v>
+        <v>45196</v>
       </c>
       <c r="E2" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="F2" s="36">
         <v>360</v>
@@ -7235,24 +7238,24 @@
       <c r="AM2" s="30"/>
       <c r="AN2" s="30"/>
     </row>
-    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="B3" s="35">
-        <v>50000.000000000044</v>
+        <v>50277.777777777868</v>
       </c>
       <c r="C3" s="35">
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="E3" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="F3" s="36">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>#N/A</v>
@@ -7267,7 +7270,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K3" s="38">
-        <v>1</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="L3" s="39">
         <v>0.05</v>
@@ -7319,24 +7322,24 @@
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
     </row>
-    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="B4" s="35">
-        <v>50277.777777777868</v>
+        <v>49861.111111111131</v>
       </c>
       <c r="C4" s="35">
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="E4" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="F4" s="36">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>#N/A</v>
@@ -7351,7 +7354,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K4" s="38">
-        <v>1.0055555555555555</v>
+        <v>0.99722222222222223</v>
       </c>
       <c r="L4" s="39">
         <v>0.05</v>
@@ -7403,9 +7406,9 @@
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
     </row>
-    <row r="5" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="B5" s="35">
         <v>49861.111111111131</v>
@@ -7414,10 +7417,10 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="E5" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="F5" s="36">
         <v>359</v>
@@ -7487,24 +7490,24 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
     </row>
-    <row r="6" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="B6" s="35">
-        <v>49861.111111111131</v>
+        <v>50000.000000000044</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="E6" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="F6" s="36">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>#N/A</v>
@@ -7519,7 +7522,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K6" s="38">
-        <v>0.99722222222222223</v>
+        <v>1</v>
       </c>
       <c r="L6" s="39">
         <v>0.05</v>
@@ -7571,9 +7574,9 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
     </row>
-    <row r="7" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="B7" s="35">
         <v>50000.000000000044</v>
@@ -7582,10 +7585,10 @@
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="E7" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="F7" s="36">
         <v>360</v>
@@ -7655,9 +7658,9 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="B8" s="35">
         <v>50000.000000000044</v>
@@ -7666,10 +7669,10 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="E8" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="F8" s="36">
         <v>360</v>
@@ -7739,24 +7742,24 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="B9" s="35">
-        <v>50000.000000000044</v>
+        <v>50277.777777777868</v>
       </c>
       <c r="C9" s="35">
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="E9" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="F9" s="36">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G9" s="37" t="str">
         <v>#N/A</v>
@@ -7771,7 +7774,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K9" s="38">
-        <v>1</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="L9" s="39">
         <v>0.05</v>
@@ -7823,24 +7826,24 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="B10" s="35">
-        <v>50138.888888888956</v>
+        <v>49722.222222222226</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="E10" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="F10" s="36">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>#N/A</v>
@@ -7855,7 +7858,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K10" s="38">
-        <v>1.0027777777777778</v>
+        <v>0.99444444444444446</v>
       </c>
       <c r="L10" s="39">
         <v>0.05</v>
@@ -7907,24 +7910,24 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="B11" s="35">
-        <v>49861.111111111131</v>
+        <v>50000.000000000044</v>
       </c>
       <c r="C11" s="35">
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="E11" s="41">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="F11" s="36">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>#N/A</v>
@@ -7939,7 +7942,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K11" s="38">
-        <v>0.99722222222222223</v>
+        <v>1</v>
       </c>
       <c r="L11" s="39">
         <v>0.05</v>
@@ -9139,29 +9142,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(CMS!E1,0)</f>
         <v>Payment Date</v>
@@ -9227,21 +9230,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="B2" s="35">
-        <v>45964.859681008398</v>
+        <v>45964.33314701364</v>
       </c>
       <c r="C2" s="35">
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>43858</v>
+        <v>45196</v>
       </c>
       <c r="E2" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="F2" s="36">
         <v>366</v>
@@ -9253,7 +9256,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="41">
-        <v>43854</v>
+        <v>45194</v>
       </c>
       <c r="J2" s="36" t="str">
         <v>Actual/360</v>
@@ -9262,7 +9265,7 @@
         <v>1.0166666666666666</v>
       </c>
       <c r="L2" s="39">
-        <v>4.5211337391155806E-2</v>
+        <v>4.5210819488865878E-2</v>
       </c>
       <c r="M2" s="39" t="str">
         <v>#N/A</v>
@@ -9271,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="39">
-        <v>4.5021100886513767E-2</v>
+        <v>4.5021108778764987E-2</v>
       </c>
       <c r="P2" s="39">
-        <v>1.9023650464203984E-4</v>
+        <v>1.8971071010089047E-4</v>
       </c>
       <c r="Q2" s="39">
         <v>0</v>
@@ -9292,24 +9295,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="B3" s="35">
-        <v>46023.556490581825</v>
+        <v>46273.394184169076</v>
       </c>
       <c r="C3" s="35">
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>44224</v>
+        <v>45562</v>
       </c>
       <c r="E3" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="F3" s="36">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9318,16 +9321,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="41">
-        <v>44222</v>
+        <v>45560</v>
       </c>
       <c r="J3" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K3" s="38">
-        <v>1.0138888888888888</v>
+        <v>1.0194444444444444</v>
       </c>
       <c r="L3" s="39">
-        <v>4.5393096812628653E-2</v>
+        <v>4.5390795385015996E-2</v>
       </c>
       <c r="M3" s="39" t="str">
         <v>#N/A</v>
@@ -9336,10 +9339,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="39">
-        <v>4.5006923395240671E-2</v>
+        <v>4.5006931640100729E-2</v>
       </c>
       <c r="P3" s="39">
-        <v>3.8617341738798189E-4</v>
+        <v>3.8386374491526654E-4</v>
       </c>
       <c r="Q3" s="39">
         <v>0</v>
@@ -9357,24 +9360,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="B4" s="35">
-        <v>46478.496264358801</v>
+        <v>46098.209820706521</v>
       </c>
       <c r="C4" s="35">
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>44589</v>
+        <v>45929</v>
       </c>
       <c r="E4" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="F4" s="36">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9383,16 +9386,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="41">
-        <v>44587</v>
+        <v>45925</v>
       </c>
       <c r="J4" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K4" s="38">
-        <v>1.0194444444444444</v>
+        <v>1.0111111111111111</v>
       </c>
       <c r="L4" s="39">
-        <v>4.5591985436428256E-2</v>
+        <v>4.5591636086413041E-2</v>
       </c>
       <c r="M4" s="39" t="str">
         <v>#N/A</v>
@@ -9401,10 +9404,10 @@
         <v>1</v>
       </c>
       <c r="O4" s="39">
-        <v>4.5008029175311381E-2</v>
+        <v>4.5007931906802877E-2</v>
       </c>
       <c r="P4" s="39">
-        <v>5.8395626111687471E-4</v>
+        <v>5.8370417961016441E-4</v>
       </c>
       <c r="Q4" s="39">
         <v>0</v>
@@ -9422,21 +9425,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="B5" s="35">
-        <v>46316.034762055271</v>
+        <v>46315.880775687518</v>
       </c>
       <c r="C5" s="35">
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>44956</v>
+        <v>46293</v>
       </c>
       <c r="E5" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="F5" s="36">
         <v>364</v>
@@ -9448,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="41">
-        <v>44952</v>
+        <v>46289</v>
       </c>
       <c r="J5" s="36" t="str">
         <v>Actual/360</v>
@@ -9457,7 +9460,7 @@
         <v>1.0111111111111111</v>
       </c>
       <c r="L5" s="39">
-        <v>4.5807067347087636E-2</v>
+        <v>4.5806915052877768E-2</v>
       </c>
       <c r="M5" s="39" t="str">
         <v>#N/A</v>
@@ -9466,10 +9469,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="39">
-        <v>4.5017527985410921E-2</v>
+        <v>4.5019502408633547E-2</v>
       </c>
       <c r="P5" s="39">
-        <v>7.8953936167671518E-4</v>
+        <v>7.8741264424422169E-4</v>
       </c>
       <c r="Q5" s="39">
         <v>0</v>
@@ -9487,24 +9490,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="B6" s="35">
-        <v>46634.111577323143</v>
+        <v>46782.148780726944</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>45320</v>
+        <v>46657</v>
       </c>
       <c r="E6" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="F6" s="36">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9513,16 +9516,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="41">
-        <v>45316</v>
+        <v>46653</v>
       </c>
       <c r="J6" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K6" s="38">
-        <v>1.0138888888888888</v>
+        <v>1.0166666666666666</v>
       </c>
       <c r="L6" s="39">
-        <v>4.5995288131058451E-2</v>
+        <v>4.6015228308911749E-2</v>
       </c>
       <c r="M6" s="39" t="str">
         <v>#N/A</v>
@@ -9531,10 +9534,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="39">
-        <v>4.4998335106035847E-2</v>
+        <v>4.5021175851779595E-2</v>
       </c>
       <c r="P6" s="39">
-        <v>9.9695302502260386E-4</v>
+        <v>9.9405245713215379E-4</v>
       </c>
       <c r="Q6" s="39">
         <v>0</v>
@@ -9552,21 +9555,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="B7" s="35">
-        <v>46857.042463408805</v>
+        <v>46856.004883551446</v>
       </c>
       <c r="C7" s="35">
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>45685</v>
+        <v>47023</v>
       </c>
       <c r="E7" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="F7" s="36">
         <v>365</v>
@@ -9578,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="41">
-        <v>45681</v>
+        <v>47021</v>
       </c>
       <c r="J7" s="36" t="str">
         <v>Actual/360</v>
@@ -9587,7 +9590,7 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="L7" s="39">
-        <v>4.6215165169389512E-2</v>
+        <v>4.6214141802954856E-2</v>
       </c>
       <c r="M7" s="39" t="str">
         <v>#N/A</v>
@@ -9596,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="39">
-        <v>4.5006994120837612E-2</v>
+        <v>4.5006928165107166E-2</v>
       </c>
       <c r="P7" s="39">
-        <v>1.2081710485518996E-3</v>
+        <v>1.20721363784769E-3</v>
       </c>
       <c r="Q7" s="39">
         <v>0</v>
@@ -9617,21 +9620,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="B8" s="35">
-        <v>47078.920154865678</v>
+        <v>47077.117692727101</v>
       </c>
       <c r="C8" s="35">
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>46050</v>
+        <v>47388</v>
       </c>
       <c r="E8" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="F8" s="36">
         <v>365</v>
@@ -9643,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="41">
-        <v>46048</v>
+        <v>47386</v>
       </c>
       <c r="J8" s="36" t="str">
         <v>Actual/360</v>
@@ -9652,7 +9655,7 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="L8" s="39">
-        <v>4.6434003440415469E-2</v>
+        <v>4.6432225669539057E-2</v>
       </c>
       <c r="M8" s="39" t="str">
         <v>#N/A</v>
@@ -9661,10 +9664,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="39">
-        <v>4.5008026308675252E-2</v>
+        <v>4.5008034159982682E-2</v>
       </c>
       <c r="P8" s="39">
-        <v>1.4259771317402178E-3</v>
+        <v>1.4241915095563745E-3</v>
       </c>
       <c r="Q8" s="39">
         <v>0</v>
@@ -9682,24 +9685,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="B9" s="35">
-        <v>47316.068054612435</v>
+        <v>47570.271785639838</v>
       </c>
       <c r="C9" s="35">
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>46415</v>
+        <v>47753</v>
       </c>
       <c r="E9" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="F9" s="36">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G9" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9708,16 +9711,16 @@
         <v>2</v>
       </c>
       <c r="I9" s="41">
-        <v>46413</v>
+        <v>47751</v>
       </c>
       <c r="J9" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K9" s="38">
-        <v>1.0138888888888888</v>
+        <v>1.0194444444444444</v>
       </c>
       <c r="L9" s="39">
-        <v>4.6667902738795827E-2</v>
+        <v>4.6662936901445073E-2</v>
       </c>
       <c r="M9" s="39" t="str">
         <v>#N/A</v>
@@ -9726,10 +9729,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="39">
-        <v>4.5019432844782201E-2</v>
+        <v>4.5019441051630464E-2</v>
       </c>
       <c r="P9" s="39">
-        <v>1.6484698940136266E-3</v>
+        <v>1.6434958498146093E-3</v>
       </c>
       <c r="Q9" s="39">
         <v>0</v>
@@ -9747,24 +9750,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="B10" s="35">
-        <v>47806.184560883565</v>
+        <v>47419.595099448255</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>46780</v>
+        <v>48120</v>
       </c>
       <c r="E10" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="F10" s="36">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9773,16 +9776,16 @@
         <v>2</v>
       </c>
       <c r="I10" s="41">
-        <v>46778</v>
+        <v>48116</v>
       </c>
       <c r="J10" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K10" s="38">
-        <v>1.0194444444444444</v>
+        <v>1.0111111111111111</v>
       </c>
       <c r="L10" s="39">
-        <v>4.6894349977978429E-2</v>
+        <v>4.6898500647805971E-2</v>
       </c>
       <c r="M10" s="39" t="str">
         <v>#N/A</v>
@@ -9791,10 +9794,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="39">
-        <v>4.5021102135241485E-2</v>
+        <v>4.5021150503872981E-2</v>
       </c>
       <c r="P10" s="39">
-        <v>1.8732478427369442E-3</v>
+        <v>1.8773501439329904E-3</v>
       </c>
       <c r="Q10" s="39">
         <v>0</v>
@@ -9812,24 +9815,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="B11" s="35">
-        <v>47625.767926565561</v>
+        <v>47765.329336048868</v>
       </c>
       <c r="C11" s="35">
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>47147</v>
+        <v>48484</v>
       </c>
       <c r="E11" s="41">
-        <v>47511</v>
+        <v>48849</v>
       </c>
       <c r="F11" s="36">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9838,16 +9841,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="41">
-        <v>47143</v>
+        <v>48480</v>
       </c>
       <c r="J11" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K11" s="38">
-        <v>1.0111111111111111</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="L11" s="39">
-        <v>4.7102407839460445E-2</v>
+        <v>4.7111009756102995E-2</v>
       </c>
       <c r="M11" s="39" t="str">
         <v>#N/A</v>
@@ -9856,10 +9859,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="39">
-        <v>4.4994407888799812E-2</v>
+        <v>4.500707574571846E-2</v>
       </c>
       <c r="P11" s="39">
-        <v>2.1079999506606328E-3</v>
+        <v>2.1039340103845353E-3</v>
       </c>
       <c r="Q11" s="39">
         <v>0</v>
